--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,121 +64,142 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.846+/-0.002</t>
-  </si>
-  <si>
-    <t>0.814+/-0.0</t>
-  </si>
-  <si>
-    <t>0.805</t>
-  </si>
-  <si>
-    <t>0.921+/-0.007</t>
-  </si>
-  <si>
-    <t>0.704+/-0.087</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.258+/-0.008</t>
-  </si>
-  <si>
-    <t>0.134+/-0.033</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>6.466+/-0.411</t>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.847+/-0.002</t>
+  </si>
+  <si>
+    <t>0.815+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.923+/-0.007</t>
+  </si>
+  <si>
+    <t>0.706+/-0.086</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.262+/-0.008</t>
+  </si>
+  <si>
+    <t>0.136+/-0.032</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>5.695+/-0.584</t>
   </si>
   <si>
     <t>0.82+/-0.001</t>
   </si>
   <si>
-    <t>0.809+/-0.0</t>
-  </si>
-  <si>
-    <t>0.809</t>
-  </si>
-  <si>
-    <t>0.683+/-0.01</t>
-  </si>
-  <si>
-    <t>0.584+/-0.058</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.2+/-0.008</t>
-  </si>
-  <si>
-    <t>0.172+/-0.034</t>
+    <t>0.811+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.681+/-0.009</t>
+  </si>
+  <si>
+    <t>0.599+/-0.062</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.197+/-0.009</t>
+  </si>
+  <si>
+    <t>0.176+/-0.034</t>
   </si>
   <si>
     <t>0.155</t>
   </si>
   <si>
-    <t>1.467+/-0.044</t>
-  </si>
-  <si>
-    <t>0.847+/-0.001</t>
+    <t>0.962+/-0.027</t>
+  </si>
+  <si>
+    <t>0.848+/-0.002</t>
+  </si>
+  <si>
+    <t>0.818+/-0.0</t>
   </si>
   <si>
     <t>0.811</t>
   </si>
   <si>
-    <t>0.852+/-0.008</t>
-  </si>
-  <si>
-    <t>0.617+/-0.041</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.292+/-0.007</t>
-  </si>
-  <si>
-    <t>0.2+/-0.027</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>4.354+/-0.187</t>
+    <t>0.856+/-0.01</t>
+  </si>
+  <si>
+    <t>0.651+/-0.039</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.293+/-0.008</t>
+  </si>
+  <si>
+    <t>0.204+/-0.024</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>3.814+/-0.081</t>
   </si>
   <si>
     <t>0.813+/-0.001</t>
   </si>
   <si>
-    <t>0.806+/-0.0</t>
+    <t>0.805+/-0.0</t>
   </si>
   <si>
     <t>0.799</t>
   </si>
   <si>
-    <t>0.751+/-0.019</t>
-  </si>
-  <si>
-    <t>0.632+/-0.087</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.105+/-0.006</t>
-  </si>
-  <si>
-    <t>0.082+/-0.027</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.821+/-0.039</t>
+    <t>0.751+/-0.014</t>
+  </si>
+  <si>
+    <t>0.618+/-0.075</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.106+/-0.006</t>
+  </si>
+  <si>
+    <t>0.083+/-0.029</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.604+/-0.027</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.876+/-0.001</t>
@@ -190,85 +211,82 @@
     <t>0.851</t>
   </si>
   <si>
-    <t>0.88+/-0.01</t>
-  </si>
-  <si>
-    <t>0.583+/-0.103</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.203+/-0.005</t>
-  </si>
-  <si>
-    <t>0.092+/-0.02</t>
+    <t>0.878+/-0.008</t>
+  </si>
+  <si>
+    <t>0.6+/-0.128</t>
+  </si>
+  <si>
+    <t>0.199+/-0.005</t>
+  </si>
+  <si>
+    <t>0.094+/-0.021</t>
   </si>
   <si>
     <t>0.082</t>
   </si>
   <si>
-    <t>5.781+/-0.298</t>
-  </si>
-  <si>
-    <t>0.863+/-0.002</t>
+    <t>4.539+/-0.099</t>
+  </si>
+  <si>
+    <t>0.863+/-0.001</t>
   </si>
   <si>
     <t>0.856+/-0.0</t>
   </si>
   <si>
-    <t>0.678+/-0.019</t>
-  </si>
-  <si>
-    <t>0.581+/-0.061</t>
+    <t>0.684+/-0.018</t>
+  </si>
+  <si>
+    <t>0.585+/-0.091</t>
   </si>
   <si>
     <t>0.514</t>
   </si>
   <si>
-    <t>0.17+/-0.018</t>
-  </si>
-  <si>
-    <t>0.143+/-0.027</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>1.44+/-0.083</t>
+    <t>0.167+/-0.015</t>
+  </si>
+  <si>
+    <t>0.139+/-0.035</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.964+/-0.019</t>
   </si>
   <si>
     <t>0.886+/-0.001</t>
   </si>
   <si>
-    <t>0.858+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.863+/-0.007</t>
-  </si>
-  <si>
-    <t>0.596+/-0.075</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.285+/-0.009</t>
-  </si>
-  <si>
-    <t>0.173+/-0.025</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>4.28+/-0.444</t>
-  </si>
-  <si>
-    <t>0.857+/-0.001</t>
+    <t>0.859+/-0.0</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.862+/-0.008</t>
+  </si>
+  <si>
+    <t>0.605+/-0.076</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.284+/-0.009</t>
+  </si>
+  <si>
+    <t>0.185+/-0.024</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>3.787+/-0.05</t>
+  </si>
+  <si>
+    <t>0.855+/-0.001</t>
   </si>
   <si>
     <t>0.852+/-0.0</t>
@@ -277,253 +295,265 @@
     <t>0.848</t>
   </si>
   <si>
-    <t>0.705+/-0.017</t>
-  </si>
-  <si>
-    <t>0.562+/-0.16</t>
+    <t>0.676+/-0.024</t>
+  </si>
+  <si>
+    <t>0.58+/-0.216</t>
   </si>
   <si>
     <t>0.429</t>
   </si>
   <si>
-    <t>0.074+/-0.011</t>
-  </si>
-  <si>
-    <t>0.055+/-0.019</t>
+    <t>0.063+/-0.01</t>
+  </si>
+  <si>
+    <t>0.048+/-0.017</t>
   </si>
   <si>
     <t>0.032</t>
   </si>
   <si>
-    <t>0.842+/-0.076</t>
-  </si>
-  <si>
-    <t>0.769+/-0.001</t>
+    <t>0.532+/-0.01</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.767+/-0.002</t>
   </si>
   <si>
     <t>0.733+/-0.0</t>
   </si>
   <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.979+/-0.005</t>
+  </si>
+  <si>
+    <t>0.647+/-0.07</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.162+/-0.006</t>
+  </si>
+  <si>
+    <t>0.076+/-0.021</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>4.792+/-0.082</t>
+  </si>
+  <si>
+    <t>0.742+/-0.001</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.697+/-0.008</t>
+  </si>
+  <si>
+    <t>0.595+/-0.076</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.124+/-0.004</t>
+  </si>
+  <si>
+    <t>0.103+/-0.023</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.949+/-0.015</t>
+  </si>
+  <si>
+    <t>0.772+/-0.002</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.895+/-0.01</t>
+  </si>
+  <si>
+    <t>0.548+/-0.085</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.199+/-0.006</t>
+  </si>
+  <si>
+    <t>0.113+/-0.024</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>3.741+/-0.061</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.88+/-0.016</t>
+  </si>
+  <si>
+    <t>0.694+/-0.095</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.053+/-0.004</t>
+  </si>
+  <si>
+    <t>0.032+/-0.013</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.531+/-0.016</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.738+/-0.002</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.976+/-0.006</t>
+  </si>
+  <si>
+    <t>0.677+/-0.081</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.153+/-0.007</t>
+  </si>
+  <si>
+    <t>0.079+/-0.018</t>
+  </si>
+  <si>
+    <t>5.618+/-0.287</t>
+  </si>
+  <si>
+    <t>0.712+/-0.001</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.695+/-0.006</t>
+  </si>
+  <si>
+    <t>0.582+/-0.067</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.118+/-0.005</t>
+  </si>
+  <si>
+    <t>0.1+/-0.02</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.966+/-0.028</t>
+  </si>
+  <si>
+    <t>0.746+/-0.002</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.902+/-0.008</t>
+  </si>
+  <si>
+    <t>0.597+/-0.056</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.197+/-0.008</t>
+  </si>
+  <si>
+    <t>0.107+/-0.017</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>3.963+/-0.075</t>
+  </si>
+  <si>
+    <t>0.708+/-0.001</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.878+/-0.016</t>
+  </si>
+  <si>
+    <t>0.711+/-0.097</t>
+  </si>
+  <si>
     <t>0.733</t>
   </si>
   <si>
-    <t>0.981+/-0.005</t>
-  </si>
-  <si>
-    <t>0.651+/-0.058</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.17+/-0.004</t>
-  </si>
-  <si>
-    <t>0.078+/-0.021</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>7.771+/-1.081</t>
-  </si>
-  <si>
-    <t>0.743+/-0.001</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.702+/-0.012</t>
-  </si>
-  <si>
-    <t>0.603+/-0.079</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.124+/-0.004</t>
-  </si>
-  <si>
-    <t>0.102+/-0.022</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>1.917+/-0.223</t>
-  </si>
-  <si>
-    <t>0.773+/-0.002</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.9+/-0.013</t>
-  </si>
-  <si>
-    <t>0.581+/-0.075</t>
-  </si>
-  <si>
-    <t>0.201+/-0.006</t>
-  </si>
-  <si>
-    <t>0.116+/-0.024</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>5.133+/-0.216</t>
-  </si>
-  <si>
-    <t>0.738+/-0.001</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.889+/-0.008</t>
-  </si>
-  <si>
-    <t>0.739+/-0.077</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>0.061+/-0.005</t>
-  </si>
-  <si>
-    <t>0.039+/-0.013</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>1.139+/-0.179</t>
-  </si>
-  <si>
-    <t>0.738+/-0.002</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.979+/-0.005</t>
-  </si>
-  <si>
-    <t>0.683+/-0.095</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.153+/-0.006</t>
-  </si>
-  <si>
-    <t>0.076+/-0.019</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>7.34+/-1.105</t>
-  </si>
-  <si>
-    <t>0.713+/-0.001</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703+/-0.008</t>
-  </si>
-  <si>
-    <t>0.592+/-0.064</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.117+/-0.005</t>
-  </si>
-  <si>
-    <t>0.099+/-0.02</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>1.548+/-0.05</t>
-  </si>
-  <si>
-    <t>0.747+/-0.003</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.901+/-0.007</t>
-  </si>
-  <si>
-    <t>0.592+/-0.054</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.2+/-0.009</t>
-  </si>
-  <si>
-    <t>0.107+/-0.016</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>5.196+/-0.277</t>
-  </si>
-  <si>
-    <t>0.708+/-0.001</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.882+/-0.013</t>
-  </si>
-  <si>
-    <t>0.702+/-0.089</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.06+/-0.005</t>
-  </si>
-  <si>
-    <t>0.037+/-0.012</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>1.002+/-0.082</t>
+    <t>0.061+/-0.002</t>
+  </si>
+  <si>
+    <t>0.037+/-0.013</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.614+/-0.045</t>
   </si>
 </sst>
 </file>
@@ -912,16 +942,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0.7986820871436255</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -929,19 +959,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>0.7986820871436255</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -949,19 +979,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -969,19 +999,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -989,19 +1019,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1009,19 +1039,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1029,19 +1059,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1049,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1069,19 +1099,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1089,19 +1119,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1139,19 +1169,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <v>0.8500537923614847</v>
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1159,19 +1189,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3">
-        <v>0.8500537923614847</v>
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1179,19 +1209,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1199,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1219,19 +1249,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1239,19 +1269,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1259,19 +1289,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1279,19 +1309,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1299,19 +1329,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1319,19 +1349,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1369,19 +1399,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>121</v>
       </c>
-      <c r="F2">
-        <v>0.7231038192576654</v>
+      <c r="F2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1389,19 +1419,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="F3">
-        <v>0.7231038192576654</v>
+      <c r="F3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1409,19 +1439,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1429,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1449,19 +1479,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1469,19 +1499,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1489,19 +1519,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1509,19 +1539,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1529,19 +1559,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1549,19 +1579,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>141</v>
@@ -1608,10 +1638,10 @@
         <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2">
-        <v>0.6919042495965573</v>
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1619,19 +1649,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3">
-        <v>0.6919042495965573</v>
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1639,19 +1669,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1659,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
         <v>162</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1679,19 +1709,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>163</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1699,19 +1729,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
         <v>164</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1719,19 +1749,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
         <v>165</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1739,19 +1769,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>166</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1759,19 +1789,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>167</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1779,19 +1809,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>168</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_33_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,124 +76,124 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.847+/-0.002</t>
-  </si>
-  <si>
-    <t>0.815+/-0.0</t>
+    <t>0.846+/-0.002</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
   </si>
   <si>
     <t>0.803</t>
   </si>
   <si>
-    <t>0.923+/-0.007</t>
-  </si>
-  <si>
-    <t>0.706+/-0.086</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.262+/-0.008</t>
-  </si>
-  <si>
-    <t>0.136+/-0.032</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>5.695+/-0.584</t>
+    <t>0.921+/-0.007</t>
+  </si>
+  <si>
+    <t>0.686+/-0.08</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.26+/-0.011</t>
+  </si>
+  <si>
+    <t>0.131+/-0.034</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>6.839+/-0.073</t>
   </si>
   <si>
     <t>0.82+/-0.001</t>
   </si>
   <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.681+/-0.009</t>
-  </si>
-  <si>
-    <t>0.599+/-0.062</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.197+/-0.009</t>
-  </si>
-  <si>
-    <t>0.176+/-0.034</t>
+    <t>0.809+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.683+/-0.01</t>
+  </si>
+  <si>
+    <t>0.584+/-0.058</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.2+/-0.008</t>
+  </si>
+  <si>
+    <t>0.172+/-0.034</t>
   </si>
   <si>
     <t>0.155</t>
   </si>
   <si>
-    <t>0.962+/-0.027</t>
-  </si>
-  <si>
-    <t>0.848+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
+    <t>1.257+/-0.019</t>
+  </si>
+  <si>
+    <t>0.847+/-0.001</t>
+  </si>
+  <si>
+    <t>0.814+/-0.0</t>
   </si>
   <si>
     <t>0.811</t>
   </si>
   <si>
-    <t>0.856+/-0.01</t>
-  </si>
-  <si>
-    <t>0.651+/-0.039</t>
+    <t>0.852+/-0.008</t>
+  </si>
+  <si>
+    <t>0.615+/-0.043</t>
   </si>
   <si>
     <t>0.611</t>
   </si>
   <si>
-    <t>0.293+/-0.008</t>
-  </si>
-  <si>
-    <t>0.204+/-0.024</t>
+    <t>0.292+/-0.007</t>
+  </si>
+  <si>
+    <t>0.201+/-0.027</t>
   </si>
   <si>
     <t>0.176</t>
   </si>
   <si>
-    <t>3.814+/-0.081</t>
+    <t>5.242+/-0.25</t>
   </si>
   <si>
     <t>0.813+/-0.001</t>
   </si>
   <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.751+/-0.014</t>
-  </si>
-  <si>
-    <t>0.618+/-0.075</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.106+/-0.006</t>
-  </si>
-  <si>
-    <t>0.083+/-0.029</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>0.604+/-0.027</t>
+    <t>0.806+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.751+/-0.015</t>
+  </si>
+  <si>
+    <t>0.63+/-0.073</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.105+/-0.006</t>
+  </si>
+  <si>
+    <t>0.084+/-0.027</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>1.034+/-0.02</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -202,31 +202,34 @@
     <t>0.85</t>
   </si>
   <si>
-    <t>0.876+/-0.001</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
+    <t>0.877+/-0.001</t>
+  </si>
+  <si>
+    <t>0.855+/-0.0</t>
   </si>
   <si>
     <t>0.851</t>
   </si>
   <si>
-    <t>0.878+/-0.008</t>
-  </si>
-  <si>
-    <t>0.6+/-0.128</t>
-  </si>
-  <si>
-    <t>0.199+/-0.005</t>
-  </si>
-  <si>
-    <t>0.094+/-0.021</t>
+    <t>0.883+/-0.009</t>
+  </si>
+  <si>
+    <t>0.605+/-0.12</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.204+/-0.005</t>
+  </si>
+  <si>
+    <t>0.1+/-0.025</t>
   </si>
   <si>
     <t>0.082</t>
   </si>
   <si>
-    <t>4.539+/-0.099</t>
+    <t>6.841+/-0.08</t>
   </si>
   <si>
     <t>0.863+/-0.001</t>
@@ -235,85 +238,85 @@
     <t>0.856+/-0.0</t>
   </si>
   <si>
-    <t>0.684+/-0.018</t>
-  </si>
-  <si>
-    <t>0.585+/-0.091</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>0.167+/-0.015</t>
-  </si>
-  <si>
-    <t>0.139+/-0.035</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.964+/-0.019</t>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.679+/-0.018</t>
+  </si>
+  <si>
+    <t>0.58+/-0.091</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.161+/-0.019</t>
+  </si>
+  <si>
+    <t>0.134+/-0.038</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>1.261+/-0.034</t>
   </si>
   <si>
     <t>0.886+/-0.001</t>
   </si>
   <si>
-    <t>0.859+/-0.0</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.862+/-0.008</t>
-  </si>
-  <si>
-    <t>0.605+/-0.076</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.284+/-0.009</t>
-  </si>
-  <si>
-    <t>0.185+/-0.024</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>3.787+/-0.05</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.676+/-0.024</t>
-  </si>
-  <si>
-    <t>0.58+/-0.216</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.063+/-0.01</t>
-  </si>
-  <si>
-    <t>0.048+/-0.017</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.532+/-0.01</t>
+    <t>0.861+/-0.0</t>
+  </si>
+  <si>
+    <t>0.866+/-0.009</t>
+  </si>
+  <si>
+    <t>0.623+/-0.102</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>0.283+/-0.007</t>
+  </si>
+  <si>
+    <t>0.187+/-0.034</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>4.943+/-0.186</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.853+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.695+/-0.018</t>
+  </si>
+  <si>
+    <t>0.588+/-0.144</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.071+/-0.007</t>
+  </si>
+  <si>
+    <t>0.056+/-0.017</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>1.069+/-0.05</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -322,238 +325,250 @@
     <t>0.723</t>
   </si>
   <si>
-    <t>0.767+/-0.002</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
+    <t>0.767+/-0.001</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
   </si>
   <si>
     <t>0.732</t>
   </si>
   <si>
-    <t>0.979+/-0.005</t>
-  </si>
-  <si>
-    <t>0.647+/-0.07</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.162+/-0.006</t>
-  </si>
-  <si>
-    <t>0.076+/-0.021</t>
+    <t>0.978+/-0.006</t>
+  </si>
+  <si>
+    <t>0.634+/-0.085</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.164+/-0.004</t>
+  </si>
+  <si>
+    <t>0.075+/-0.021</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>6.227+/-0.332</t>
+  </si>
+  <si>
+    <t>0.743+/-0.002</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.702+/-0.016</t>
+  </si>
+  <si>
+    <t>0.627+/-0.076</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.125+/-0.005</t>
+  </si>
+  <si>
+    <t>0.108+/-0.024</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>1.256+/-0.033</t>
+  </si>
+  <si>
+    <t>0.772+/-0.001</t>
+  </si>
+  <si>
+    <t>0.731+/-0.0</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.896+/-0.006</t>
+  </si>
+  <si>
+    <t>0.57+/-0.074</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.201+/-0.005</t>
+  </si>
+  <si>
+    <t>0.117+/-0.025</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>4.68+/-0.081</t>
+  </si>
+  <si>
+    <t>0.735+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.882+/-0.014</t>
+  </si>
+  <si>
+    <t>0.681+/-0.093</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.051+/-0.004</t>
+  </si>
+  <si>
+    <t>0.033+/-0.014</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.754+/-0.02</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.739+/-0.002</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.978+/-0.007</t>
+  </si>
+  <si>
+    <t>0.696+/-0.082</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.155+/-0.005</t>
+  </si>
+  <si>
+    <t>0.079+/-0.018</t>
   </si>
   <si>
     <t>0.07</t>
   </si>
   <si>
-    <t>4.792+/-0.082</t>
-  </si>
-  <si>
-    <t>0.742+/-0.001</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.697+/-0.008</t>
-  </si>
-  <si>
-    <t>0.595+/-0.076</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.124+/-0.004</t>
-  </si>
-  <si>
-    <t>0.103+/-0.023</t>
+    <t>7.621+/-0.3</t>
+  </si>
+  <si>
+    <t>0.713+/-0.001</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.703+/-0.008</t>
+  </si>
+  <si>
+    <t>0.592+/-0.064</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.117+/-0.005</t>
+  </si>
+  <si>
+    <t>0.099+/-0.02</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>1.607+/-0.025</t>
+  </si>
+  <si>
+    <t>0.746+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.901+/-0.008</t>
+  </si>
+  <si>
+    <t>0.598+/-0.052</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.199+/-0.009</t>
+  </si>
+  <si>
+    <t>0.109+/-0.017</t>
   </si>
   <si>
     <t>0.101</t>
   </si>
   <si>
-    <t>0.949+/-0.015</t>
-  </si>
-  <si>
-    <t>0.772+/-0.002</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.895+/-0.01</t>
-  </si>
-  <si>
-    <t>0.548+/-0.085</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.199+/-0.006</t>
-  </si>
-  <si>
-    <t>0.113+/-0.024</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>3.741+/-0.061</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.88+/-0.016</t>
-  </si>
-  <si>
-    <t>0.694+/-0.095</t>
+    <t>5.863+/-0.127</t>
+  </si>
+  <si>
+    <t>0.708+/-0.001</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
   </si>
   <si>
     <t>0.7</t>
   </si>
   <si>
-    <t>0.053+/-0.004</t>
-  </si>
-  <si>
-    <t>0.032+/-0.013</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>0.531+/-0.016</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.738+/-0.002</t>
-  </si>
-  <si>
-    <t>0.705+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.976+/-0.006</t>
-  </si>
-  <si>
-    <t>0.677+/-0.081</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.153+/-0.007</t>
-  </si>
-  <si>
-    <t>0.079+/-0.018</t>
-  </si>
-  <si>
-    <t>5.618+/-0.287</t>
-  </si>
-  <si>
-    <t>0.712+/-0.001</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.695+/-0.006</t>
-  </si>
-  <si>
-    <t>0.582+/-0.067</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.118+/-0.005</t>
-  </si>
-  <si>
-    <t>0.1+/-0.02</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.966+/-0.028</t>
-  </si>
-  <si>
-    <t>0.746+/-0.002</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.902+/-0.008</t>
-  </si>
-  <si>
-    <t>0.597+/-0.056</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.197+/-0.008</t>
-  </si>
-  <si>
-    <t>0.107+/-0.017</t>
-  </si>
-  <si>
-    <t>0.105</t>
-  </si>
-  <si>
-    <t>3.963+/-0.075</t>
-  </si>
-  <si>
-    <t>0.708+/-0.001</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.878+/-0.016</t>
-  </si>
-  <si>
-    <t>0.711+/-0.097</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.061+/-0.002</t>
-  </si>
-  <si>
-    <t>0.037+/-0.013</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>0.614+/-0.045</t>
+    <t>0.881+/-0.022</t>
+  </si>
+  <si>
+    <t>0.717+/-0.088</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.059+/-0.005</t>
+  </si>
+  <si>
+    <t>0.039+/-0.013</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>1.043+/-0.026</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1190,13 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1195,13 +1210,13 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1215,13 +1230,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1235,13 +1250,13 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1255,13 +1270,13 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1272,16 +1287,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1292,16 +1307,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1312,16 +1327,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1332,16 +1347,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1352,16 +1367,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1399,19 +1414,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1419,19 +1434,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1439,19 +1454,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1462,16 +1477,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,16 +1497,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1502,16 +1517,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1522,16 +1537,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1542,16 +1557,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1562,16 +1577,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1582,16 +1597,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1629,19 +1644,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1649,19 +1664,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1669,19 +1684,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1692,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,16 +1727,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1732,16 +1747,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1752,16 +1767,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1772,16 +1787,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1792,16 +1807,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1812,16 +1827,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
